--- a/Chapter4資料探勘與趨勢分析/TicketSituationDifference_chart/過夜情況.xlsx
+++ b/Chapter4資料探勘與趨勢分析/TicketSituationDifference_chart/過夜情況.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cody\Research\Chapter4資料探勘與趨勢分析\TicketSituationDifference_chart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD1CAC2-8A32-4B38-B6B5-3D43E18C6E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="過夜情況分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="過夜情況分析" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>票種</t>
+  </si>
+  <si>
+    <t>工作日紀錄數</t>
+  </si>
+  <si>
+    <t>過夜紀錄數</t>
+  </si>
+  <si>
+    <t>過夜比例(%)</t>
+  </si>
+  <si>
+    <t>平均每日有多少人會過夜</t>
+  </si>
+  <si>
+    <t>平均每日過夜有多少不同用戶</t>
+  </si>
+  <si>
+    <t>臨停車</t>
+  </si>
+  <si>
+    <t>學生計次汽車</t>
+  </si>
+  <si>
+    <t>教職員汽車</t>
+  </si>
+  <si>
+    <t>學生長時汽車</t>
+  </si>
+  <si>
+    <t>臨時貴賓</t>
+  </si>
+  <si>
+    <t>廠商汽車證</t>
+  </si>
+  <si>
+    <t>教職員計次</t>
+  </si>
+  <si>
+    <t>身障優惠</t>
+  </si>
+  <si>
+    <t>退休及校友汽車識別證</t>
+  </si>
+  <si>
+    <t>在職專班汽車</t>
+  </si>
+  <si>
+    <t>退休及校友臨停</t>
+  </si>
+  <si>
+    <t>互惠車輛</t>
+  </si>
+  <si>
+    <t>長時廠商汽車</t>
+  </si>
+  <si>
+    <t>特殊入校車輛</t>
+  </si>
+  <si>
+    <t>學生機車證</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,425 +453,385 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>票種</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>工作日紀錄數</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>過夜紀錄數</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>過夜比例(%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>平均每日有多少人會過夜</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>平均每日過夜有多少不同用戶</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>臨停車</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>502474</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1232</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.2451868156362319</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.285714285714286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.620218579234973</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="F2">
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="G2">
+        <v>2.6202185792349728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>學生計次汽車</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>75434</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6600</v>
       </c>
-      <c r="E3" t="n">
-        <v>8.749370310470079</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>8.7493703104700788</v>
+      </c>
+      <c r="F3">
         <v>18.18181818181818</v>
       </c>
-      <c r="G3" t="n">
-        <v>1.461748633879781</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="G3">
+        <v>1.4617486338797809</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>教職員汽車</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>288116</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>10529</v>
       </c>
-      <c r="E4" t="n">
-        <v>3.654430854239265</v>
-      </c>
-      <c r="F4" t="n">
-        <v>28.84657534246575</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="E4">
+        <v>3.6544308542392652</v>
+      </c>
+      <c r="F4">
+        <v>28.846575342465751</v>
+      </c>
+      <c r="G4">
         <v>2.043715846994536</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>學生長時汽車</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>52489</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>8491</v>
       </c>
-      <c r="E5" t="n">
-        <v>16.17672274190783</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>16.176722741907831</v>
+      </c>
+      <c r="F5">
         <v>23.32692307692308</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.092896174863388</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="G5">
+        <v>1.0928961748633881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>臨時貴賓</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>31515</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>561</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.780104712041885</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.133079847908745</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2246575342465753</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="E6">
+        <v>1.7801047120418849</v>
+      </c>
+      <c r="F6">
+        <v>2.1330798479087449</v>
+      </c>
+      <c r="G6">
+        <v>0.22465753424657531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>廠商汽車證</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
         <v>75218</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>606</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.8056582201068894</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.376470588235294</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2923497267759563</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="E7">
+        <v>0.80565822010688937</v>
+      </c>
+      <c r="F7">
+        <v>2.3764705882352941</v>
+      </c>
+      <c r="G7">
+        <v>0.29234972677595628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>教職員計次</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
         <v>5710</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>82</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1.436077057793345</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.012345679012346</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.02203856749311295</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="G8">
+        <v>2.2038567493112948E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>身障優惠</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>2285</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.7877461706783371</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9">
+        <v>0.78774617067833708</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.01662049861495845</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="G9">
+        <v>1.662049861495845E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>退休及校友汽車識別證</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
         <v>27703</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.03970689095043858</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10">
+        <v>3.9706890950438577E-2</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.02191780821917808</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="G10">
+        <v>2.1917808219178079E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>在職專班汽車</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
         <v>18271</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>90</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.4925838760877894</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>0.49258387608778942</v>
+      </c>
+      <c r="F11">
         <v>2.432432432432432</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.1135734072022161</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="G11">
+        <v>0.11357340720221611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>退休及校友臨停</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
         <v>8615</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.1741149158444573</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12">
+        <v>0.17411491584445729</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.01933701657458563</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="G12">
+        <v>1.9337016574585631E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>互惠車輛</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
         <v>4329</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>41</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.9471009471009472</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>0.94710094710094717</v>
+      </c>
+      <c r="F13">
         <v>1.28125</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.09295774647887324</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="G13">
+        <v>9.295774647887324E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>長時廠商汽車</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
         <v>2529</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>32</v>
       </c>
-      <c r="E14" t="n">
-        <v>1.265322261763543</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.066666666666667</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.02389078498293516</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="E14">
+        <v>1.2653222617635429</v>
+      </c>
+      <c r="F14">
+        <v>1.0666666666666671</v>
+      </c>
+      <c r="G14">
+        <v>2.3890784982935159E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>特殊入校車輛</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
         <v>42</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="G15">
+        <v>2.777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>學生機車證</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Chapter4資料探勘與趨勢分析/TicketSituationDifference_chart/過夜情況.xlsx
+++ b/Chapter4資料探勘與趨勢分析/TicketSituationDifference_chart/過夜情況.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cody\Research\Chapter4資料探勘與趨勢分析\TicketSituationDifference_chart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD1CAC2-8A32-4B38-B6B5-3D43E18C6E85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="過夜情況分析" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -88,27 +82,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,18 +142,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -453,22 +433,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,22 +468,22 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>502474</v>
+        <v>503024</v>
       </c>
       <c r="D2">
-        <v>1232</v>
+        <v>1782</v>
       </c>
       <c r="E2">
-        <v>0.2451868156362319</v>
+        <v>0.3542574509367346</v>
       </c>
       <c r="F2">
-        <v>6.2857142857142856</v>
+        <v>8.608695652173912</v>
       </c>
       <c r="G2">
-        <v>2.6202185792349728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.754098360655738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,22 +491,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>75434</v>
+        <v>75773</v>
       </c>
       <c r="D3">
-        <v>6600</v>
+        <v>6921</v>
       </c>
       <c r="E3">
-        <v>8.7493703104700788</v>
+        <v>9.133860346033549</v>
       </c>
       <c r="F3">
-        <v>18.18181818181818</v>
+        <v>19.06611570247934</v>
       </c>
       <c r="G3">
-        <v>1.4617486338797809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.483606557377049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -542,22 +514,22 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>288116</v>
+        <v>288993</v>
       </c>
       <c r="D4">
-        <v>10529</v>
+        <v>11355</v>
       </c>
       <c r="E4">
-        <v>3.6544308542392652</v>
+        <v>3.929160913932171</v>
       </c>
       <c r="F4">
-        <v>28.846575342465751</v>
+        <v>31.10958904109589</v>
       </c>
       <c r="G4">
-        <v>2.043715846994536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.103825136612022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,22 +537,22 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>52489</v>
+        <v>53146</v>
       </c>
       <c r="D5">
-        <v>8491</v>
+        <v>9121</v>
       </c>
       <c r="E5">
-        <v>16.176722741907831</v>
+        <v>17.16215707673202</v>
       </c>
       <c r="F5">
-        <v>23.32692307692308</v>
+        <v>25.05769230769231</v>
       </c>
       <c r="G5">
-        <v>1.0928961748633881</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.122950819672131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -588,22 +560,22 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>31515</v>
+        <v>31594</v>
       </c>
       <c r="D6">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="E6">
-        <v>1.7801047120418849</v>
+        <v>1.990884345128822</v>
       </c>
       <c r="F6">
-        <v>2.1330798479087449</v>
+        <v>2.304029304029304</v>
       </c>
       <c r="G6">
-        <v>0.22465753424657531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2410958904109589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,22 +583,22 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>75218</v>
+        <v>75293</v>
       </c>
       <c r="D7">
-        <v>606</v>
+        <v>664</v>
       </c>
       <c r="E7">
-        <v>0.80565822010688937</v>
+        <v>0.8818880905263439</v>
       </c>
       <c r="F7">
-        <v>2.3764705882352941</v>
+        <v>2.496240601503759</v>
       </c>
       <c r="G7">
-        <v>0.29234972677595628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3087431693989071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -634,22 +606,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>5710</v>
+        <v>5711</v>
       </c>
       <c r="D8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8">
-        <v>1.436077057793345</v>
+        <v>1.453335668009105</v>
       </c>
       <c r="F8">
-        <v>1.012345679012346</v>
+        <v>1.01219512195122</v>
       </c>
       <c r="G8">
-        <v>2.2038567493112948E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.02479338842975207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -663,16 +635,16 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>0.78774617067833708</v>
+        <v>0.7877461706783371</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.662049861495845E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.01662049861495845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -680,22 +652,22 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>27703</v>
+        <v>27704</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>3.9706890950438577E-2</v>
+        <v>0.04331504475887958</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.1917808219178079E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.02465753424657534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -703,22 +675,22 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>18271</v>
+        <v>18273</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11">
-        <v>0.49258387608778942</v>
+        <v>0.5034750725113555</v>
       </c>
       <c r="F11">
-        <v>2.432432432432432</v>
+        <v>2.358974358974359</v>
       </c>
       <c r="G11">
-        <v>0.11357340720221611</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1191135734072022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -732,16 +704,16 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>0.17411491584445729</v>
+        <v>0.1741149158444573</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.9337016574585631E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.01933701657458563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -755,16 +727,16 @@
         <v>41</v>
       </c>
       <c r="E13">
-        <v>0.94710094710094717</v>
+        <v>0.9471009471009472</v>
       </c>
       <c r="F13">
         <v>1.28125</v>
       </c>
       <c r="G13">
-        <v>9.295774647887324E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.09295774647887324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -772,22 +744,22 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>1.2653222617635429</v>
+        <v>1.304347826086957</v>
       </c>
       <c r="F14">
-        <v>1.0666666666666671</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="G14">
-        <v>2.3890784982935159E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.02389078498293516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -801,16 +773,16 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>4.7619047619047619</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.777777777777778E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.02777777777777778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -831,7 +803,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>